--- a/aptlist.xlsx
+++ b/aptlist.xlsx
@@ -24,19 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>힐스테이트 영통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영통아이파크캐슬1단지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽적골8단지두산,우성,한신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>complex_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,51 +34,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>건영1차</t>
+  </si>
+  <si>
+    <t>경희타운(도시형)</t>
+  </si>
+  <si>
+    <t>대우</t>
+  </si>
+  <si>
+    <t>더하우스(도시형)</t>
+  </si>
+  <si>
+    <t>동신</t>
+  </si>
+  <si>
+    <t>마이온(도시형)</t>
+  </si>
+  <si>
+    <t>벽산,풍림</t>
+  </si>
+  <si>
+    <t>벽적골8단지두산,우성,한신</t>
+  </si>
+  <si>
+    <t>벽적골8단지주공</t>
+  </si>
+  <si>
+    <t>벽적골9단지주공</t>
+  </si>
+  <si>
     <t>벽적골롯데</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽적골9단지주공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽적골8단지주공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구골진덕,서광,성지,동아</t>
+  </si>
+  <si>
+    <t>삼성,태영</t>
   </si>
   <si>
     <t>신나무실5단지주공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신나무실6단지동보,신명</t>
+  </si>
+  <si>
+    <t>신나무실건영2차</t>
+  </si>
+  <si>
+    <t>신나무실극동,풍림</t>
+  </si>
+  <si>
+    <t>신명,한국</t>
   </si>
   <si>
     <t>신성,신안,쌍용,진흥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신원,미주</t>
+  </si>
+  <si>
+    <t>쌍용</t>
+  </si>
+  <si>
+    <t>아이-시티(도시형)</t>
+  </si>
+  <si>
+    <t>영통e-편한세상</t>
+  </si>
+  <si>
+    <t>영통대우월드마크(주상복합)</t>
+  </si>
+  <si>
+    <t>영통라온프라이빗</t>
+  </si>
+  <si>
+    <t>영통마크타워(도시형)</t>
+  </si>
+  <si>
+    <t>영통센트럴파크뷰</t>
+  </si>
+  <si>
+    <t>영통아이파크</t>
   </si>
   <si>
     <t>영통에듀파크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영통포레파크원</t>
+  </si>
+  <si>
+    <t>영통풍림아이원3차</t>
+  </si>
+  <si>
+    <t>영통하우스토리(주상복합)</t>
+  </si>
+  <si>
+    <t>청명마을삼성</t>
   </si>
   <si>
     <t>청명마을주공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영통포레파크원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신명,한국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청명센트레빌</t>
+  </si>
+  <si>
+    <t>현대</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +161,6 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -151,17 +200,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -457,114 +500,298 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>121441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>109412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>115708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>12056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>133221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>112255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>10685</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>12045</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>3638</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3991</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3988</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>2588</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>12042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>8028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>7954</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>13465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>7953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>121401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>26008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>26780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>109929</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>121729</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>19012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
         <v>1804</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>26173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>1809</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7953</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>103509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>1802</v>
       </c>
     </row>
   </sheetData>
